--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.582978925243333</v>
+        <v>2.562128560411576</v>
       </c>
       <c r="C2">
-        <v>1.819183579051325</v>
+        <v>1.809441918582433</v>
       </c>
       <c r="D2">
-        <v>1.558560782759679</v>
+        <v>1.552136229771481</v>
       </c>
       <c r="E2">
-        <v>1.42190946800268</v>
+        <v>1.414509557120016</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.597949215682552</v>
+        <v>2.576937016845974</v>
       </c>
       <c r="C3">
-        <v>1.829810382535806</v>
+        <v>1.820836472639407</v>
       </c>
       <c r="D3">
-        <v>1.570930301688488</v>
+        <v>1.563193023149681</v>
       </c>
       <c r="E3">
-        <v>1.432029230025849</v>
+        <v>1.425213289967862</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.544785249097303</v>
+        <v>2.526949918108024</v>
       </c>
       <c r="C4">
-        <v>1.792082093669993</v>
+        <v>1.782668010042132</v>
       </c>
       <c r="D4">
-        <v>1.533196979898264</v>
+        <v>1.526684029639687</v>
       </c>
       <c r="E4">
-        <v>1.396166702990912</v>
+        <v>1.390138974964715</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.590664483198036</v>
+        <v>2.571187619835253</v>
       </c>
       <c r="C5">
-        <v>1.82695462591286</v>
+        <v>1.817028306682256</v>
       </c>
       <c r="D5">
-        <v>1.551925953943164</v>
+        <v>1.545217619614819</v>
       </c>
       <c r="E5">
-        <v>1.430096272749267</v>
+        <v>1.423685679465119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.600397922209863</v>
+        <v>2.580933269305367</v>
       </c>
       <c r="C6">
-        <v>1.834212240675051</v>
+        <v>1.823976775771101</v>
       </c>
       <c r="D6">
-        <v>1.559028330133393</v>
+        <v>1.551005964670673</v>
       </c>
       <c r="E6">
-        <v>1.435292095929674</v>
+        <v>1.428914950493217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.57505219918824</v>
+        <v>2.555471140536096</v>
       </c>
       <c r="C7">
-        <v>1.813429498371163</v>
+        <v>1.804522491512453</v>
       </c>
       <c r="D7">
-        <v>1.556412057934797</v>
+        <v>1.549486314736102</v>
       </c>
       <c r="E7">
-        <v>1.420291292860427</v>
+        <v>1.413520031540223</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.58802937711476</v>
+        <v>2.568469745368881</v>
       </c>
       <c r="C8">
-        <v>1.825386326719689</v>
+        <v>1.815118152670409</v>
       </c>
       <c r="D8">
-        <v>1.581826698341254</v>
+        <v>1.573590969358645</v>
       </c>
       <c r="E8">
-        <v>1.425703090062145</v>
+        <v>1.419552146857844</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.593465168946538</v>
+        <v>2.57466267579235</v>
       </c>
       <c r="C9">
-        <v>1.829115929549631</v>
+        <v>1.820110013471357</v>
       </c>
       <c r="D9">
-        <v>1.570702274522521</v>
+        <v>1.563634562990191</v>
       </c>
       <c r="E9">
-        <v>1.432531936025836</v>
+        <v>1.426263507133462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.270433746283037</v>
+        <v>2.253757000171591</v>
       </c>
       <c r="C10">
-        <v>1.584448622075486</v>
+        <v>1.57578486270646</v>
       </c>
       <c r="D10">
-        <v>1.352491451647372</v>
+        <v>1.344117272470109</v>
       </c>
       <c r="E10">
-        <v>1.231004033611632</v>
+        <v>1.225441711943755</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.202548788556571</v>
+        <v>2.186605345224173</v>
       </c>
       <c r="C11">
-        <v>1.534031358452496</v>
+        <v>1.524747233310899</v>
       </c>
       <c r="D11">
-        <v>1.302977974131756</v>
+        <v>1.298091163975458</v>
       </c>
       <c r="E11">
-        <v>1.189488548717063</v>
+        <v>1.183188477810487</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.873219860562857</v>
+        <v>1.858851259405834</v>
       </c>
       <c r="C12">
-        <v>1.282113650074564</v>
+        <v>1.275774180011838</v>
       </c>
       <c r="D12">
-        <v>1.078773983574287</v>
+        <v>1.073177682413108</v>
       </c>
       <c r="E12">
-        <v>0.9809766685492183</v>
+        <v>0.9765449706184237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.249356317698947</v>
+        <v>2.23224328459987</v>
       </c>
       <c r="C13">
-        <v>1.567267403978091</v>
+        <v>1.559307860733568</v>
       </c>
       <c r="D13">
-        <v>1.337171172512715</v>
+        <v>1.329072515563819</v>
       </c>
       <c r="E13">
-        <v>1.217513627245137</v>
+        <v>1.21168381432692</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Fiets.xlsx
@@ -388,10 +388,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.562128560411576</v>
+        <v>2.562128560411577</v>
       </c>
       <c r="C2">
-        <v>1.809441918582433</v>
+        <v>1.809441918582434</v>
       </c>
       <c r="D2">
         <v>1.552136229771481</v>
@@ -408,13 +408,13 @@
         <v>2.576937016845974</v>
       </c>
       <c r="C3">
-        <v>1.820836472639407</v>
+        <v>1.820836472639406</v>
       </c>
       <c r="D3">
         <v>1.563193023149681</v>
       </c>
       <c r="E3">
-        <v>1.425213289967862</v>
+        <v>1.425213289967863</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -428,7 +428,7 @@
         <v>1.782668010042132</v>
       </c>
       <c r="D4">
-        <v>1.526684029639687</v>
+        <v>1.526684029639688</v>
       </c>
       <c r="E4">
         <v>1.390138974964715</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.571187619835253</v>
+        <v>2.571187619835254</v>
       </c>
       <c r="C5">
-        <v>1.817028306682256</v>
+        <v>1.817028306682257</v>
       </c>
       <c r="D5">
-        <v>1.545217619614819</v>
+        <v>1.545217619614818</v>
       </c>
       <c r="E5">
         <v>1.423685679465119</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.580933269305367</v>
+        <v>2.58093326930537</v>
       </c>
       <c r="C6">
         <v>1.823976775771101</v>
       </c>
       <c r="D6">
-        <v>1.551005964670673</v>
+        <v>1.551005964670671</v>
       </c>
       <c r="E6">
         <v>1.428914950493217</v>
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.555471140536096</v>
+        <v>2.555471140536097</v>
       </c>
       <c r="C7">
         <v>1.804522491512453</v>
       </c>
       <c r="D7">
-        <v>1.549486314736102</v>
+        <v>1.549486314736101</v>
       </c>
       <c r="E7">
-        <v>1.413520031540223</v>
+        <v>1.413520031540222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.568469745368881</v>
+        <v>2.568469745368879</v>
       </c>
       <c r="C8">
-        <v>1.815118152670409</v>
+        <v>1.815118152670408</v>
       </c>
       <c r="D8">
         <v>1.573590969358645</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.57466267579235</v>
+        <v>2.574662675792349</v>
       </c>
       <c r="C9">
         <v>1.820110013471357</v>
       </c>
       <c r="D9">
-        <v>1.563634562990191</v>
+        <v>1.563634562990192</v>
       </c>
       <c r="E9">
         <v>1.426263507133462</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.253757000171591</v>
+        <v>2.253757000171593</v>
       </c>
       <c r="C10">
-        <v>1.57578486270646</v>
+        <v>1.575784862706459</v>
       </c>
       <c r="D10">
-        <v>1.344117272470109</v>
+        <v>1.34411727247011</v>
       </c>
       <c r="E10">
-        <v>1.225441711943755</v>
+        <v>1.225441711943756</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.186605345224173</v>
+        <v>2.186605345224175</v>
       </c>
       <c r="C11">
         <v>1.524747233310899</v>
       </c>
       <c r="D11">
-        <v>1.298091163975458</v>
+        <v>1.298091163975459</v>
       </c>
       <c r="E11">
-        <v>1.183188477810487</v>
+        <v>1.183188477810486</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.858851259405834</v>
+        <v>1.858851259405835</v>
       </c>
       <c r="C12">
         <v>1.275774180011838</v>
@@ -567,7 +567,7 @@
         <v>1.073177682413108</v>
       </c>
       <c r="E12">
-        <v>0.9765449706184237</v>
+        <v>0.9765449706184234</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.23224328459987</v>
+        <v>2.232243284599871</v>
       </c>
       <c r="C13">
-        <v>1.559307860733568</v>
+        <v>1.559307860733567</v>
       </c>
       <c r="D13">
         <v>1.329072515563819</v>
       </c>
       <c r="E13">
-        <v>1.21168381432692</v>
+        <v>1.211683814326919</v>
       </c>
     </row>
   </sheetData>
